--- a/predictions/Прогнозы_GP_Ex_Per.xlsx
+++ b/predictions/Прогнозы_GP_Ex_Per.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,40 +446,40 @@
         </is>
       </c>
       <c r="B1" s="2" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="C1" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="D1" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="E1" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="F1" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="G1" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="H1" s="2" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="I1" s="2" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="J1" s="2" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="K1" s="2" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="L1" s="2" t="n">
-        <v>45597</v>
+        <v>45627</v>
       </c>
       <c r="M1" s="2" t="n">
-        <v>45627</v>
+        <v>45658</v>
       </c>
     </row>
     <row r="2">
@@ -489,40 +489,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13904313.99718775</v>
+        <v>14187160.6867272</v>
       </c>
       <c r="C2" t="n">
-        <v>13904312.02322005</v>
+        <v>14187160.67804293</v>
       </c>
       <c r="D2" t="n">
-        <v>13904310.04925263</v>
+        <v>14187160.66935863</v>
       </c>
       <c r="E2" t="n">
-        <v>13904308.07528553</v>
+        <v>14187160.66067435</v>
       </c>
       <c r="F2" t="n">
-        <v>13904306.10131867</v>
+        <v>14187160.65199007</v>
       </c>
       <c r="G2" t="n">
-        <v>13904304.12735207</v>
+        <v>14187160.64330575</v>
       </c>
       <c r="H2" t="n">
-        <v>13904302.1533858</v>
+        <v>14187160.63462145</v>
       </c>
       <c r="I2" t="n">
-        <v>13904300.1794198</v>
+        <v>14187160.62593715</v>
       </c>
       <c r="J2" t="n">
-        <v>13904298.20545407</v>
+        <v>14187160.61725288</v>
       </c>
       <c r="K2" t="n">
-        <v>13904296.23148864</v>
+        <v>14187160.60856858</v>
       </c>
       <c r="L2" t="n">
-        <v>13904294.25752343</v>
+        <v>14187160.59988428</v>
       </c>
       <c r="M2" t="n">
-        <v>13904292.28355856</v>
+        <v>14187160.59119999</v>
       </c>
     </row>
     <row r="3">
@@ -532,175 +532,175 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10046150.30703153</v>
+        <v>10585950.74656104</v>
       </c>
       <c r="C3" t="n">
-        <v>9708086.405483736</v>
+        <v>10529307.75852697</v>
       </c>
       <c r="D3" t="n">
-        <v>9381398.722490994</v>
+        <v>10472967.85409589</v>
       </c>
       <c r="E3" t="n">
-        <v>9065704.435906313</v>
+        <v>10416929.41153715</v>
       </c>
       <c r="F3" t="n">
-        <v>8760633.605964964</v>
+        <v>10361190.81779759</v>
       </c>
       <c r="G3" t="n">
-        <v>8465828.741778301</v>
+        <v>10305750.46845513</v>
       </c>
       <c r="H3" t="n">
-        <v>8180944.382415506</v>
+        <v>10250606.76767261</v>
       </c>
       <c r="I3" t="n">
-        <v>7905646.692082409</v>
+        <v>10195758.12815179</v>
       </c>
       <c r="J3" t="n">
-        <v>7639613.068922981</v>
+        <v>10141202.97108772</v>
       </c>
       <c r="K3" t="n">
-        <v>7382531.766985068</v>
+        <v>10086939.72612324</v>
       </c>
       <c r="L3" t="n">
-        <v>7134101.530907406</v>
+        <v>10032966.83130386</v>
       </c>
       <c r="M3" t="n">
-        <v>6894031.242899812</v>
+        <v>9979282.733032741</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>ИПР Актобе (Kz)</t>
+          <t>Отдел Ковригин  (Kz)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2528098.508343504</v>
+        <v>32511123.64094723</v>
       </c>
       <c r="C4" t="n">
-        <v>2528098.508343504</v>
+        <v>29986095.64658471</v>
       </c>
       <c r="D4" t="n">
-        <v>2528098.508343504</v>
+        <v>27688688.05316252</v>
       </c>
       <c r="E4" t="n">
-        <v>2528098.508343504</v>
+        <v>25598381.8616676</v>
       </c>
       <c r="F4" t="n">
-        <v>2528098.508343504</v>
+        <v>23696507.7724933</v>
       </c>
       <c r="G4" t="n">
-        <v>2528098.508343504</v>
+        <v>21966079.4430026</v>
       </c>
       <c r="H4" t="n">
-        <v>2528098.508343504</v>
+        <v>20391641.77620418</v>
       </c>
       <c r="I4" t="n">
-        <v>2528098.508343504</v>
+        <v>18959132.88555095</v>
       </c>
       <c r="J4" t="n">
-        <v>2528098.508343504</v>
+        <v>17655758.50301764</v>
       </c>
       <c r="K4" t="n">
-        <v>2528098.508343504</v>
+        <v>16469877.70874949</v>
       </c>
       <c r="L4" t="n">
-        <v>2528098.508343504</v>
+        <v>15390898.96169087</v>
       </c>
       <c r="M4" t="n">
-        <v>2528098.508343504</v>
+        <v>14409185.50260525</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>ИПР Павлодар (Kz)</t>
+          <t>Отдел Концевой</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2976952.503411204</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>2974598.214347005</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>2972245.7871456</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>2969895.220334493</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>2967546.512442455</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2965199.661999367</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>2962854.667536288</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>2960511.527585432</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>2958170.240680195</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>2955830.805355094</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>2953493.220145866</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>2951157.483589314</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>ИПР Апатиты</t>
+          <t>Отдел Мараев (АлРоса)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5158576.492634635</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>5387323.686898617</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>5092130.803847154</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>5394415.830427396</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>5138635.371860137</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>5296950.745559232</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>5267649.45565943</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>5166192.588222407</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>5382610.488488635</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>5093227.089538523</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>5397678.064084872</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>5132130.189443959</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>ИПР Балаково</t>
+          <t>Отдел Мищенко (МетИнв)</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -743,3011 +743,1893 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>ИПР Волхов ФСА</t>
+          <t>Отдел Попов</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>916765.3091017735</v>
+        <v>16269380.25564271</v>
       </c>
       <c r="C8" t="n">
-        <v>916763.9711354329</v>
+        <v>16269380.25564271</v>
       </c>
       <c r="D8" t="n">
-        <v>916763.632982399</v>
+        <v>16269380.25564271</v>
       </c>
       <c r="E8" t="n">
-        <v>916765.4663932195</v>
+        <v>16269380.25564271</v>
       </c>
       <c r="F8" t="n">
-        <v>916763.118328426</v>
+        <v>16269380.25564271</v>
       </c>
       <c r="G8" t="n">
-        <v>916764.7251808634</v>
+        <v>16269380.25564271</v>
       </c>
       <c r="H8" t="n">
-        <v>916764.718967485</v>
+        <v>16269380.25564271</v>
       </c>
       <c r="I8" t="n">
-        <v>916763.1212184022</v>
+        <v>16269380.25564271</v>
       </c>
       <c r="J8" t="n">
-        <v>916765.4683721634</v>
+        <v>16269380.25564271</v>
       </c>
       <c r="K8" t="n">
-        <v>916763.6271931167</v>
+        <v>16269380.25564271</v>
       </c>
       <c r="L8" t="n">
-        <v>916763.97763886</v>
+        <v>16269380.25564271</v>
       </c>
       <c r="M8" t="n">
-        <v>916765.3053624636</v>
+        <v>16269380.25564271</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>ИПР Еврохим УКК</t>
+          <t>Отдел Филиппов</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>18267207.94477189</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>18266772.57297838</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>18265616.14924669</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>18264733.42909265</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>18264725.82530725</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>18264920.82021403</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>18264361.94113767</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>18263180.37681782</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>18262414.97926676</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>18262494.18497717</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>18262634.24710512</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>18261938.26682067</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец ФСА</t>
+          <t>Отдел Шугай (Русал)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3492451.903421836</v>
+        <v>12655983.10386195</v>
       </c>
       <c r="C10" t="n">
-        <v>3492203.462358127</v>
+        <v>10655660.01763194</v>
       </c>
       <c r="D10" t="n">
-        <v>3491894.351460016</v>
+        <v>9028003.9590091</v>
       </c>
       <c r="E10" t="n">
-        <v>3491550.642588536</v>
+        <v>7703585.787060348</v>
       </c>
       <c r="F10" t="n">
-        <v>3491201.323582215</v>
+        <v>6625911.247101212</v>
       </c>
       <c r="G10" t="n">
-        <v>3490875.85169387</v>
+        <v>5749011.157179254</v>
       </c>
       <c r="H10" t="n">
-        <v>3490601.668642533</v>
+        <v>5035480.551051824</v>
       </c>
       <c r="I10" t="n">
-        <v>3490401.887197579</v>
+        <v>4454883.135528823</v>
       </c>
       <c r="J10" t="n">
-        <v>3490293.344224626</v>
+        <v>3982453.002865691</v>
       </c>
       <c r="K10" t="n">
-        <v>3490285.183743217</v>
+        <v>3598038.218574828</v>
       </c>
       <c r="L10" t="n">
-        <v>3490378.08857892</v>
+        <v>3285241.222438342</v>
       </c>
       <c r="M10" t="n">
-        <v>3490564.22452007</v>
+        <v>3030719.375750005</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>ИПР Алроса</t>
+          <t>Отдел Ясиновер (УГМК)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>13954950.27195576</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>11639172.89364873</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>9707691.034950679</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>8096732.138199121</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>6753106.488630599</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>5632451.026955679</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>4697764.595370272</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>3918186.25459805</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>3267976.335138407</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>2725666.579655803</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>2273351.316400496</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1896096.260032105</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>ИПР ММК</t>
+          <t>Менеджер ОРСТП 1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>814550.1861031475</v>
+        <v>32315840.98672663</v>
       </c>
       <c r="C12" t="n">
-        <v>877654.8518345396</v>
+        <v>32315840.98672663</v>
       </c>
       <c r="D12" t="n">
-        <v>927531.363073153</v>
+        <v>32315840.98672663</v>
       </c>
       <c r="E12" t="n">
-        <v>966956.2118888176</v>
+        <v>32315840.98672663</v>
       </c>
       <c r="F12" t="n">
-        <v>998119.5123237784</v>
+        <v>32315840.98672663</v>
       </c>
       <c r="G12" t="n">
-        <v>1022748.841694153</v>
+        <v>32315840.98672663</v>
       </c>
       <c r="H12" t="n">
-        <v>1042207.663853458</v>
+        <v>32315840.98672663</v>
       </c>
       <c r="I12" t="n">
-        <v>1057573.397499547</v>
+        <v>32315840.98672663</v>
       </c>
       <c r="J12" t="n">
-        <v>1069699.067432213</v>
+        <v>32315840.98672663</v>
       </c>
       <c r="K12" t="n">
-        <v>1079261.65601545</v>
+        <v>32315840.98672663</v>
       </c>
       <c r="L12" t="n">
-        <v>1086799.691032428</v>
+        <v>32315840.98672663</v>
       </c>
       <c r="M12" t="n">
-        <v>1092742.199403346</v>
+        <v>32315840.98672663</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>ИПР Лебединский ГОК</t>
+          <t>Менеджер ОРСТП 2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>420322.5803066522</v>
+        <v>34959646.03149156</v>
       </c>
       <c r="C13" t="n">
-        <v>420322.5803066522</v>
+        <v>34966257.46625853</v>
       </c>
       <c r="D13" t="n">
-        <v>420322.5803066522</v>
+        <v>34959692.91663124</v>
       </c>
       <c r="E13" t="n">
-        <v>420322.5803066522</v>
+        <v>34963496.7839896</v>
       </c>
       <c r="F13" t="n">
-        <v>420322.5803066522</v>
+        <v>34964025.97588778</v>
       </c>
       <c r="G13" t="n">
-        <v>420322.5803066522</v>
+        <v>34959382.7509389</v>
       </c>
       <c r="H13" t="n">
-        <v>420322.5803066522</v>
+        <v>34966220.81880227</v>
       </c>
       <c r="I13" t="n">
-        <v>420322.5803066522</v>
+        <v>34960014.28154594</v>
       </c>
       <c r="J13" t="n">
-        <v>420322.5803066522</v>
+        <v>34963023.51312046</v>
       </c>
       <c r="K13" t="n">
-        <v>420322.5803066522</v>
+        <v>34964455.56830922</v>
       </c>
       <c r="L13" t="n">
-        <v>420322.5803066522</v>
+        <v>34959174.46691201</v>
       </c>
       <c r="M13" t="n">
-        <v>420322.5803066522</v>
+        <v>34966121.68193363</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>ИПР Металлоинвест</t>
+          <t>ОПП Владивосток</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>750168.1226793185</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>750167.0054543091</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>750168.4910703789</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>750172.5628393777</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>750179.1750296263</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>750188.2533807383</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>750199.6959374185</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>750213.3741941296</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>750229.1345377923</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>750246.7999723357</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>750266.1721057701</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>750287.0333775028</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>ИПР Михайловский ГОК</t>
+          <t>ОПП Воронеж</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>204254.3123178622</v>
+        <v>2074112.40219729</v>
       </c>
       <c r="C15" t="n">
-        <v>204254.3123178622</v>
+        <v>2074109.885529496</v>
       </c>
       <c r="D15" t="n">
-        <v>204254.3123178622</v>
+        <v>2074107.035382444</v>
       </c>
       <c r="E15" t="n">
-        <v>204254.3123178622</v>
+        <v>2074103.872368874</v>
       </c>
       <c r="F15" t="n">
-        <v>204254.3123178622</v>
+        <v>2074100.419403339</v>
       </c>
       <c r="G15" t="n">
-        <v>204254.3123178622</v>
+        <v>2074096.701533612</v>
       </c>
       <c r="H15" t="n">
-        <v>204254.3123178622</v>
+        <v>2074092.745756352</v>
       </c>
       <c r="I15" t="n">
-        <v>204254.3123178622</v>
+        <v>2074088.580818536</v>
       </c>
       <c r="J15" t="n">
-        <v>204254.3123178622</v>
+        <v>2074084.237005962</v>
       </c>
       <c r="K15" t="n">
-        <v>204254.3123178622</v>
+        <v>2074079.745920418</v>
       </c>
       <c r="L15" t="n">
-        <v>204254.3123178622</v>
+        <v>2074075.14024717</v>
       </c>
       <c r="M15" t="n">
-        <v>204254.3123178622</v>
+        <v>2074070.453514563</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>ИПР ОЭМК</t>
+          <t>ОПП Казань+Чувашия</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>8937882.256399775</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>8919617.868959034</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>8901390.804436533</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>8883200.986563595</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>8865048.339227457</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>8846932.786470812</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>8828854.252491649</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>8810812.661642792</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>8792807.938431675</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>8774840.007520029</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>8756908.793723507</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>8739014.222011393</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>ИПР Уральская Сталь</t>
+          <t>ОПП Краснодар</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4.302415381818366e-147</v>
+        <v>2614444.036699913</v>
       </c>
       <c r="C17" t="n">
-        <v>4.302415381136823e-147</v>
+        <v>2614384.019657481</v>
       </c>
       <c r="D17" t="n">
-        <v>4.302415380421693e-147</v>
+        <v>2614324.003992788</v>
       </c>
       <c r="E17" t="n">
-        <v>4.302415379691962e-147</v>
+        <v>2614263.989705853</v>
       </c>
       <c r="F17" t="n">
-        <v>4.302415378967006e-147</v>
+        <v>2614203.976796582</v>
       </c>
       <c r="G17" t="n">
-        <v>4.302415378266067e-147</v>
+        <v>2614143.965264942</v>
       </c>
       <c r="H17" t="n">
-        <v>4.302415377607759e-147</v>
+        <v>2614083.95511096</v>
       </c>
       <c r="I17" t="n">
-        <v>4.302415377009557e-147</v>
+        <v>2614023.946334541</v>
       </c>
       <c r="J17" t="n">
-        <v>4.302415376487343e-147</v>
+        <v>2613963.938935678</v>
       </c>
       <c r="K17" t="n">
-        <v>4.302415376054979e-147</v>
+        <v>2613903.932914343</v>
       </c>
       <c r="L17" t="n">
-        <v>4.302415375723948e-147</v>
+        <v>2613843.928270511</v>
       </c>
       <c r="M17" t="n">
-        <v>4.302415375503035e-147</v>
+        <v>2613783.925004169</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>ИПР Воркута</t>
+          <t>ОПП Красноярск</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>908833.2995115889</v>
+        <v>2725372.440817166</v>
       </c>
       <c r="C18" t="n">
-        <v>908833.2995115889</v>
+        <v>2725372.440817166</v>
       </c>
       <c r="D18" t="n">
-        <v>908833.2995115889</v>
+        <v>2725372.440817166</v>
       </c>
       <c r="E18" t="n">
-        <v>908833.2995115889</v>
+        <v>2725372.440817166</v>
       </c>
       <c r="F18" t="n">
-        <v>908833.2995115889</v>
+        <v>2725372.440817166</v>
       </c>
       <c r="G18" t="n">
-        <v>908833.2995115889</v>
+        <v>2725372.440817166</v>
       </c>
       <c r="H18" t="n">
-        <v>908833.2995115889</v>
+        <v>2725372.440817166</v>
       </c>
       <c r="I18" t="n">
-        <v>908833.2995115889</v>
+        <v>2725372.440817166</v>
       </c>
       <c r="J18" t="n">
-        <v>908833.2995115889</v>
+        <v>2725372.440817166</v>
       </c>
       <c r="K18" t="n">
-        <v>908833.2995115889</v>
+        <v>2725372.440817166</v>
       </c>
       <c r="L18" t="n">
-        <v>908833.2995115889</v>
+        <v>2725372.440817166</v>
       </c>
       <c r="M18" t="n">
-        <v>908833.2995115889</v>
+        <v>2725372.440817166</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>ИПР Колпино СС</t>
+          <t>ОПП МСК Авто ( Юг)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>146452.2113520152</v>
+        <v>4858405.29299199</v>
       </c>
       <c r="C19" t="n">
-        <v>146452.2113520152</v>
+        <v>4858405.292991756</v>
       </c>
       <c r="D19" t="n">
-        <v>146452.2113520152</v>
+        <v>4858405.29299148</v>
       </c>
       <c r="E19" t="n">
-        <v>146452.2113520152</v>
+        <v>4858405.292991159</v>
       </c>
       <c r="F19" t="n">
-        <v>146452.2113520152</v>
+        <v>4858405.292990794</v>
       </c>
       <c r="G19" t="n">
-        <v>146452.2113520152</v>
+        <v>4858405.292990386</v>
       </c>
       <c r="H19" t="n">
-        <v>146452.2113520152</v>
+        <v>4858405.292989932</v>
       </c>
       <c r="I19" t="n">
-        <v>146452.2113520152</v>
+        <v>4858405.292989434</v>
       </c>
       <c r="J19" t="n">
-        <v>146452.2113520152</v>
+        <v>4858405.292988892</v>
       </c>
       <c r="K19" t="n">
-        <v>146452.2113520152</v>
+        <v>4858405.292988306</v>
       </c>
       <c r="L19" t="n">
-        <v>146452.2113520152</v>
+        <v>4858405.292987675</v>
       </c>
       <c r="M19" t="n">
-        <v>146452.2113520152</v>
+        <v>4858405.292987</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>ИПР Костомукша СС</t>
+          <t>ОПП МСК Пром (Север)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2151612.129843825</v>
+        <v>2670426.213560376</v>
       </c>
       <c r="C20" t="n">
-        <v>2151612.145216924</v>
+        <v>2669831.764556378</v>
       </c>
       <c r="D20" t="n">
-        <v>2151612.15599916</v>
+        <v>2669333.585996201</v>
       </c>
       <c r="E20" t="n">
-        <v>2151612.14682515</v>
+        <v>2668937.253582385</v>
       </c>
       <c r="F20" t="n">
-        <v>2151612.130768452</v>
+        <v>2668647.203596003</v>
       </c>
       <c r="G20" t="n">
-        <v>2151612.130710891</v>
+        <v>2668466.683354871</v>
       </c>
       <c r="H20" t="n">
-        <v>2151612.146734495</v>
+        <v>2668397.714918562</v>
       </c>
       <c r="I20" t="n">
-        <v>2151612.1560046</v>
+        <v>2668441.072443039</v>
       </c>
       <c r="J20" t="n">
-        <v>2151612.145310708</v>
+        <v>2668596.273438414</v>
       </c>
       <c r="K20" t="n">
-        <v>2151612.129892304</v>
+        <v>2668861.584030837</v>
       </c>
       <c r="L20" t="n">
-        <v>2151612.131721604</v>
+        <v>2669234.038175953</v>
       </c>
       <c r="M20" t="n">
-        <v>2151612.14819174</v>
+        <v>2669709.470618082</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>ИПР Олкон</t>
+          <t>ОПП Мурманск</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>978511.5931799134</v>
+        <v>2907536.886199969</v>
       </c>
       <c r="C21" t="n">
-        <v>978316.1942079962</v>
+        <v>2700508.453744236</v>
       </c>
       <c r="D21" t="n">
-        <v>978209.2172128364</v>
+        <v>2721310.026935438</v>
       </c>
       <c r="E21" t="n">
-        <v>978201.5989938065</v>
+        <v>2969967.788603461</v>
       </c>
       <c r="F21" t="n">
-        <v>978294.1417518434</v>
+        <v>2579297.328203494</v>
       </c>
       <c r="G21" t="n">
-        <v>978477.4213716094</v>
+        <v>2912748.191054512</v>
       </c>
       <c r="H21" t="n">
-        <v>978732.7413521926</v>
+        <v>2709417.406164311</v>
       </c>
       <c r="I21" t="n">
-        <v>979034.0381236213</v>
+        <v>2715867.548271285</v>
       </c>
       <c r="J21" t="n">
-        <v>979350.5443463323</v>
+        <v>2973758.716539416</v>
       </c>
       <c r="K21" t="n">
-        <v>979649.9369815961</v>
+        <v>2578150.35939157</v>
       </c>
       <c r="L21" t="n">
-        <v>979901.6455599221</v>
+        <v>2907308.903778384</v>
       </c>
       <c r="M21" t="n">
-        <v>980079.9791513188</v>
+        <v>2717812.829313046</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>ИПР Свеза</t>
+          <t>ОПП Нижний Новгород</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>562895.6358771971</v>
+        <v>8452421.519993156</v>
       </c>
       <c r="C22" t="n">
-        <v>562895.6358771971</v>
+        <v>8452421.518644214</v>
       </c>
       <c r="D22" t="n">
-        <v>562895.6358771971</v>
+        <v>8452421.517295361</v>
       </c>
       <c r="E22" t="n">
-        <v>562895.6358771971</v>
+        <v>8452421.515946507</v>
       </c>
       <c r="F22" t="n">
-        <v>562895.6358771971</v>
+        <v>8452421.514597595</v>
       </c>
       <c r="G22" t="n">
-        <v>562895.6358771971</v>
+        <v>8452421.513248503</v>
       </c>
       <c r="H22" t="n">
-        <v>562895.6358771971</v>
+        <v>8452421.51189971</v>
       </c>
       <c r="I22" t="n">
-        <v>562895.6358771971</v>
+        <v>8452421.510550827</v>
       </c>
       <c r="J22" t="n">
-        <v>562895.6358771971</v>
+        <v>8452421.509202003</v>
       </c>
       <c r="K22" t="n">
-        <v>562895.6358771971</v>
+        <v>8452421.507853031</v>
       </c>
       <c r="L22" t="n">
-        <v>562895.6358771971</v>
+        <v>8452421.506504059</v>
       </c>
       <c r="M22" t="n">
-        <v>562895.6358771971</v>
+        <v>8452421.505155176</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>ИПР Сегежа</t>
+          <t>ОПП НКЗ</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>39776.38145983499</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>39773.62398038909</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>39770.86669210422</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>39768.10959496707</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>39765.3526889643</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>39762.59597408288</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>39759.83945030958</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>39757.08311763097</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>39754.32697603374</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>39751.57102550486</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>39748.81526603109</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>39746.05969759882</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец СС</t>
+          <t>ОПП СПб Пром</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>8337326.1583106</v>
+        <v>7398870.025582744</v>
       </c>
       <c r="C24" t="n">
-        <v>8336076.169368729</v>
+        <v>6714569.13533858</v>
       </c>
       <c r="D24" t="n">
-        <v>8336075.595054444</v>
+        <v>6367356.002652317</v>
       </c>
       <c r="E24" t="n">
-        <v>8336075.668937676</v>
+        <v>6150938.058512673</v>
       </c>
       <c r="F24" t="n">
-        <v>8336075.703809025</v>
+        <v>6008706.333083486</v>
       </c>
       <c r="G24" t="n">
-        <v>8336075.569250984</v>
+        <v>5957405.887038335</v>
       </c>
       <c r="H24" t="n">
-        <v>8336075.768012287</v>
+        <v>5960242.479388649</v>
       </c>
       <c r="I24" t="n">
-        <v>8336075.557458086</v>
+        <v>5942011.689645961</v>
       </c>
       <c r="J24" t="n">
-        <v>8336075.724270096</v>
+        <v>5898309.006452722</v>
       </c>
       <c r="K24" t="n">
-        <v>8336075.645190544</v>
+        <v>5888497.165118052</v>
       </c>
       <c r="L24" t="n">
-        <v>8336075.615691524</v>
+        <v>5919598.761214545</v>
       </c>
       <c r="M24" t="n">
-        <v>8336075.745992826</v>
+        <v>5929089.012426843</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>ИПР Яковлевский СС</t>
+          <t>ОПП СПб Север Авто</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2789113.592270485</v>
+        <v>4733305.817988162</v>
       </c>
       <c r="C25" t="n">
-        <v>2788766.738213521</v>
+        <v>4733305.817615171</v>
       </c>
       <c r="D25" t="n">
-        <v>2788419.775178179</v>
+        <v>4733305.817387851</v>
       </c>
       <c r="E25" t="n">
-        <v>2788072.707912708</v>
+        <v>4733305.81733376</v>
       </c>
       <c r="F25" t="n">
-        <v>2787725.548879462</v>
+        <v>4733305.817459458</v>
       </c>
       <c r="G25" t="n">
-        <v>2787378.317710455</v>
+        <v>4733305.817749705</v>
       </c>
       <c r="H25" t="n">
-        <v>2787031.040350816</v>
+        <v>4733305.818169305</v>
       </c>
       <c r="I25" t="n">
-        <v>2786683.747926498</v>
+        <v>4733305.818667389</v>
       </c>
       <c r="J25" t="n">
-        <v>2786336.475386124</v>
+        <v>4733305.819183565</v>
       </c>
       <c r="K25" t="n">
-        <v>2785989.259976362</v>
+        <v>4733305.819655247</v>
       </c>
       <c r="L25" t="n">
-        <v>2785642.139616786</v>
+        <v>4733305.820025246</v>
       </c>
       <c r="M25" t="n">
-        <v>2785295.151245495</v>
+        <v>4733305.820248703</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>ИПР Нижний Тагил</t>
+          <t>ОПП СПб Юг Авто</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>6564663.717839107</v>
+        <v>11229305.67002431</v>
       </c>
       <c r="C26" t="n">
-        <v>6564663.650034353</v>
+        <v>11190117.90928576</v>
       </c>
       <c r="D26" t="n">
-        <v>6564663.582229629</v>
+        <v>11150975.41904314</v>
       </c>
       <c r="E26" t="n">
-        <v>6564663.51442489</v>
+        <v>11112076.60322552</v>
       </c>
       <c r="F26" t="n">
-        <v>6564663.446620166</v>
+        <v>11073499.68728242</v>
       </c>
       <c r="G26" t="n">
-        <v>6564663.37881545</v>
+        <v>11034985.34324817</v>
       </c>
       <c r="H26" t="n">
-        <v>6564663.311010711</v>
+        <v>10996645.00158884</v>
       </c>
       <c r="I26" t="n">
-        <v>6564663.243205979</v>
+        <v>10958652.53009339</v>
       </c>
       <c r="J26" t="n">
-        <v>6564663.175401278</v>
+        <v>10920764.5653964</v>
       </c>
       <c r="K26" t="n">
-        <v>6564663.107596554</v>
+        <v>10882985.40773251</v>
       </c>
       <c r="L26" t="n">
-        <v>6564663.039791808</v>
+        <v>10845552.26114503</v>
       </c>
       <c r="M26" t="n">
-        <v>6564662.971987061</v>
+        <v>10808282.11583601</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>ИПР НКЗ</t>
+          <t>ОПП Сургут</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>15047079.10011127</v>
+        <v>3225107.779399535</v>
       </c>
       <c r="C27" t="n">
-        <v>11897852.03129043</v>
+        <v>3225107.779399535</v>
       </c>
       <c r="D27" t="n">
-        <v>10269626.27895711</v>
+        <v>3225107.779399535</v>
       </c>
       <c r="E27" t="n">
-        <v>9421434.893285889</v>
+        <v>3225107.779399535</v>
       </c>
       <c r="F27" t="n">
-        <v>8973539.607012585</v>
+        <v>3225107.779399535</v>
       </c>
       <c r="G27" t="n">
-        <v>8731687.42331671</v>
+        <v>3225107.779399535</v>
       </c>
       <c r="H27" t="n">
-        <v>8596835.525594279</v>
+        <v>3225107.779399535</v>
       </c>
       <c r="I27" t="n">
-        <v>8518802.353931829</v>
+        <v>3225107.779399535</v>
       </c>
       <c r="J27" t="n">
-        <v>8472470.608737392</v>
+        <v>3225107.779399535</v>
       </c>
       <c r="K27" t="n">
-        <v>8445535.93885803</v>
+        <v>3225107.779399535</v>
       </c>
       <c r="L27" t="n">
-        <v>8432139.765469747</v>
+        <v>3225107.779399535</v>
       </c>
       <c r="M27" t="n">
-        <v>8429492.584551472</v>
+        <v>3225107.779399535</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>ИПР Русал</t>
+          <t>ОПП Хабаровск</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>13692494.82771115</v>
+        <v>7898945.60496743</v>
       </c>
       <c r="C28" t="n">
-        <v>10560103.74570801</v>
+        <v>8818187.714607079</v>
       </c>
       <c r="D28" t="n">
-        <v>8144300.401299284</v>
+        <v>7793988.816956485</v>
       </c>
       <c r="E28" t="n">
-        <v>6281153.161356235</v>
+        <v>8864327.239811439</v>
       </c>
       <c r="F28" t="n">
-        <v>4844232.542075854</v>
+        <v>8679837.981358435</v>
       </c>
       <c r="G28" t="n">
-        <v>3736031.954463557</v>
+        <v>8417303.012659118</v>
       </c>
       <c r="H28" t="n">
-        <v>2881351.100207821</v>
+        <v>7403983.919259592</v>
       </c>
       <c r="I28" t="n">
-        <v>2222193.028287655</v>
+        <v>8063762.500641021</v>
       </c>
       <c r="J28" t="n">
-        <v>1713828.57667505</v>
+        <v>8557110.119609959</v>
       </c>
       <c r="K28" t="n">
-        <v>1321761.139936317</v>
+        <v>9409705.9044229</v>
       </c>
       <c r="L28" t="n">
-        <v>1019385.797869679</v>
+        <v>8981935.851176882</v>
       </c>
       <c r="M28" t="n">
-        <v>786183.9582819545</v>
+        <v>7439371.888481943</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>ИПР УГМК</t>
+          <t>Магазин Владивосток</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>14340786.00506792</v>
+        <v>840659.0675669648</v>
       </c>
       <c r="C29" t="n">
-        <v>12953731.70156989</v>
+        <v>840649.1097829416</v>
       </c>
       <c r="D29" t="n">
-        <v>11700834.59420968</v>
+        <v>840639.9486854784</v>
       </c>
       <c r="E29" t="n">
-        <v>10569118.87286207</v>
+        <v>840622.7290131189</v>
       </c>
       <c r="F29" t="n">
-        <v>9546863.759955088</v>
+        <v>840612.2718762234</v>
       </c>
       <c r="G29" t="n">
-        <v>8623482.122541668</v>
+        <v>840594.8683232479</v>
       </c>
       <c r="H29" t="n">
-        <v>7789410.825125839</v>
+        <v>840594.8100050893</v>
       </c>
       <c r="I29" t="n">
-        <v>7036011.687666653</v>
+        <v>840578.1253448036</v>
       </c>
       <c r="J29" t="n">
-        <v>6355482.023017058</v>
+        <v>840577.357237285</v>
       </c>
       <c r="K29" t="n">
-        <v>5740773.827265802</v>
+        <v>840569.9173916001</v>
       </c>
       <c r="L29" t="n">
-        <v>5185520.786065416</v>
+        <v>840560.7301404104</v>
       </c>
       <c r="M29" t="n">
-        <v>4683972.340976791</v>
+        <v>840550.5597885661</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 1</t>
+          <t>Магазин Воронеж</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>33043766.41127235</v>
+        <v>404151.7338024201</v>
       </c>
       <c r="C30" t="n">
-        <v>33043766.41019467</v>
+        <v>403945.3662280714</v>
       </c>
       <c r="D30" t="n">
-        <v>33043766.40911695</v>
+        <v>403739.1040289379</v>
       </c>
       <c r="E30" t="n">
-        <v>33043766.40803927</v>
+        <v>403532.947151212</v>
       </c>
       <c r="F30" t="n">
-        <v>33043766.40696156</v>
+        <v>403326.8955411145</v>
       </c>
       <c r="G30" t="n">
-        <v>33043766.40588388</v>
+        <v>403120.9491448952</v>
       </c>
       <c r="H30" t="n">
-        <v>33043766.40480614</v>
+        <v>402915.1079088283</v>
       </c>
       <c r="I30" t="n">
-        <v>33043766.40372851</v>
+        <v>402709.3717792211</v>
       </c>
       <c r="J30" t="n">
-        <v>33043766.40265074</v>
+        <v>402503.7407023967</v>
       </c>
       <c r="K30" t="n">
-        <v>33043766.401573</v>
+        <v>402298.214624719</v>
       </c>
       <c r="L30" t="n">
-        <v>33043766.40049532</v>
+        <v>402092.7934925726</v>
       </c>
       <c r="M30" t="n">
-        <v>33043766.39941764</v>
+        <v>401887.4772523681</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 2</t>
+          <t>Магазин Казань / ПВЗ Казань</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>32372436.18211059</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>31819300.68490689</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>31392792.92675405</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>31075673.86883875</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>30832583.63991193</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>30644642.64436104</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>30506947.56809908</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>30401810.70422056</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>30317775.93805213</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>30258916.91024601</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>30210116.62576364</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>30174723.08203397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>ОПП Владивосток</t>
+          <t>Магазин Кемерово</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1140564.084247088</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>1103828.344964658</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>1068275.804907301</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>1033868.355126249</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>1000569.114100837</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>968342.3882050065</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>937153.6334471293</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>906969.4184421289</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>877757.3885762041</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>849486.2313257566</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>822125.6426933373</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>795646.2947246348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>ОПП Воронеж</t>
+          <t>Магазин Краснодар</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3076223.142921608</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>3074668.215849154</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>3073114.074739888</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>3071560.719196543</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>3070008.148822047</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>3068456.363219537</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>3066905.361992326</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>3065355.144743945</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>3063805.711078115</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>3062257.060598738</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>3060709.192909949</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>3059162.1076161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>ОПП Казань+Чувашия</t>
+          <t>Магазин Красноярск 1</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>9497582.553871619</v>
+        <v>2232426.636403961</v>
       </c>
       <c r="C34" t="n">
-        <v>9469626.154061709</v>
+        <v>2232426.636403961</v>
       </c>
       <c r="D34" t="n">
-        <v>9441752.044696309</v>
+        <v>2232426.636403961</v>
       </c>
       <c r="E34" t="n">
-        <v>9413959.983551245</v>
+        <v>2232426.636403961</v>
       </c>
       <c r="F34" t="n">
-        <v>9386249.72911524</v>
+        <v>2232426.636403961</v>
       </c>
       <c r="G34" t="n">
-        <v>9358621.04058798</v>
+        <v>2232426.636403961</v>
       </c>
       <c r="H34" t="n">
-        <v>9331073.677877929</v>
+        <v>2232426.636403961</v>
       </c>
       <c r="I34" t="n">
-        <v>9303607.401600257</v>
+        <v>2232426.636403961</v>
       </c>
       <c r="J34" t="n">
-        <v>9276221.973074814</v>
+        <v>2232426.636403961</v>
       </c>
       <c r="K34" t="n">
-        <v>9248917.154323958</v>
+        <v>2232426.636403961</v>
       </c>
       <c r="L34" t="n">
-        <v>9221692.708070561</v>
+        <v>2232426.636403961</v>
       </c>
       <c r="M34" t="n">
-        <v>9194548.397735927</v>
+        <v>2232426.636403961</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>ОПП Краснодар</t>
+          <t>Магазин МСК 3</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>5129784.012686329</v>
+        <v>1410693.700051998</v>
       </c>
       <c r="C35" t="n">
-        <v>5039974.980691791</v>
+        <v>1402148.912839274</v>
       </c>
       <c r="D35" t="n">
-        <v>4770703.334659676</v>
+        <v>1393655.882707842</v>
       </c>
       <c r="E35" t="n">
-        <v>4617596.93450552</v>
+        <v>1385214.296157154</v>
       </c>
       <c r="F35" t="n">
-        <v>4566421.871672959</v>
+        <v>1376823.841585585</v>
       </c>
       <c r="G35" t="n">
-        <v>4527534.608915508</v>
+        <v>1368484.209278926</v>
       </c>
       <c r="H35" t="n">
-        <v>4586991.351126067</v>
+        <v>1360195.091398957</v>
       </c>
       <c r="I35" t="n">
-        <v>4329768.877085</v>
+        <v>1351956.181972079</v>
       </c>
       <c r="J35" t="n">
-        <v>4183543.858938552</v>
+        <v>1343767.176878024</v>
       </c>
       <c r="K35" t="n">
-        <v>4172385.085546986</v>
+        <v>1335627.773838624</v>
       </c>
       <c r="L35" t="n">
-        <v>4259458.011714511</v>
+        <v>1327537.672406659</v>
       </c>
       <c r="M35" t="n">
-        <v>3849831.371743801</v>
+        <v>1319496.573954761</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>ОПП Красноярск</t>
+          <t>Магазин МСК Балашиха</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2707784.887074986</v>
+        <v>1037015.436271613</v>
       </c>
       <c r="C36" t="n">
-        <v>2707784.887074986</v>
+        <v>1037015.436207863</v>
       </c>
       <c r="D36" t="n">
-        <v>2707784.887074986</v>
+        <v>1037015.43618881</v>
       </c>
       <c r="E36" t="n">
-        <v>2707784.887074986</v>
+        <v>1037015.436289684</v>
       </c>
       <c r="F36" t="n">
-        <v>2707784.887074986</v>
+        <v>1037015.436112186</v>
       </c>
       <c r="G36" t="n">
-        <v>2707784.887074986</v>
+        <v>1037015.436357164</v>
       </c>
       <c r="H36" t="n">
-        <v>2707784.887074986</v>
+        <v>1037015.436057326</v>
       </c>
       <c r="I36" t="n">
-        <v>2707784.887074986</v>
+        <v>1037015.436396579</v>
       </c>
       <c r="J36" t="n">
-        <v>2707784.887074986</v>
+        <v>1037015.436035389</v>
       </c>
       <c r="K36" t="n">
-        <v>2707784.887074986</v>
+        <v>1037015.436399908</v>
       </c>
       <c r="L36" t="n">
-        <v>2707784.887074986</v>
+        <v>1037015.436050836</v>
       </c>
       <c r="M36" t="n">
-        <v>2707784.887074986</v>
+        <v>1037015.436366478</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Авто ( Юг)</t>
+          <t>Магазин МСК Кунцево</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4440663.997453563</v>
+        <v>3420069.671058605</v>
       </c>
       <c r="C37" t="n">
-        <v>4261508.265651098</v>
+        <v>3420069.671058604</v>
       </c>
       <c r="D37" t="n">
-        <v>4061263.588116646</v>
+        <v>3420069.671058605</v>
       </c>
       <c r="E37" t="n">
-        <v>3842659.587357525</v>
+        <v>3420069.671058605</v>
       </c>
       <c r="F37" t="n">
-        <v>3608949.140695592</v>
+        <v>3420069.671058605</v>
       </c>
       <c r="G37" t="n">
-        <v>3363767.692311824</v>
+        <v>3420069.671058605</v>
       </c>
       <c r="H37" t="n">
-        <v>3110980.892398437</v>
+        <v>3420069.671058605</v>
       </c>
       <c r="I37" t="n">
-        <v>2854529.52892923</v>
+        <v>3420069.671058605</v>
       </c>
       <c r="J37" t="n">
-        <v>2598280.321643666</v>
+        <v>3420069.671058605</v>
       </c>
       <c r="K37" t="n">
-        <v>2345890.186248201</v>
+        <v>3420069.671058605</v>
       </c>
       <c r="L37" t="n">
-        <v>2100690.163432378</v>
+        <v>3420069.671058604</v>
       </c>
       <c r="M37" t="n">
-        <v>1865593.485344215</v>
+        <v>3420069.671058604</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Пром (Север)</t>
+          <t>Магазин Мурманск</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1627615.836665108</v>
+        <v>2922089.474642486</v>
       </c>
       <c r="C38" t="n">
-        <v>1595506.749224304</v>
+        <v>2922142.019368681</v>
       </c>
       <c r="D38" t="n">
-        <v>1566566.224927695</v>
+        <v>2922162.422343459</v>
       </c>
       <c r="E38" t="n">
-        <v>1540481.586175292</v>
+        <v>2922202.579196821</v>
       </c>
       <c r="F38" t="n">
-        <v>1516971.010766573</v>
+        <v>2922248.386593766</v>
       </c>
       <c r="G38" t="n">
-        <v>1495780.487052757</v>
+        <v>2922208.402264482</v>
       </c>
       <c r="H38" t="n">
-        <v>1476681.069558312</v>
+        <v>2922152.467801209</v>
       </c>
       <c r="I38" t="n">
-        <v>1459466.405420998</v>
+        <v>2922115.31699917</v>
       </c>
       <c r="J38" t="n">
-        <v>1443950.504925775</v>
+        <v>2922131.455705464</v>
       </c>
       <c r="K38" t="n">
-        <v>1429965.732045087</v>
+        <v>2922183.189175349</v>
       </c>
       <c r="L38" t="n">
-        <v>1417360.993275035</v>
+        <v>2922228.159203407</v>
       </c>
       <c r="M38" t="n">
-        <v>1406000.105199357</v>
+        <v>2922237.592799751</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>ОПП Мурманск</t>
+          <t>Магазин Нижневартовск</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2503252.35600102</v>
+        <v>3637603.12340967</v>
       </c>
       <c r="C39" t="n">
-        <v>3047824.08115438</v>
+        <v>3637428.489518248</v>
       </c>
       <c r="D39" t="n">
-        <v>2473735.222140484</v>
+        <v>3637253.864010643</v>
       </c>
       <c r="E39" t="n">
-        <v>3071863.861110358</v>
+        <v>3637079.246886458</v>
       </c>
       <c r="F39" t="n">
-        <v>2492003.854929012</v>
+        <v>3636904.63814528</v>
       </c>
       <c r="G39" t="n">
-        <v>3064874.455526111</v>
+        <v>3636730.037786707</v>
       </c>
       <c r="H39" t="n">
-        <v>2550764.059752952</v>
+        <v>3636555.445810345</v>
       </c>
       <c r="I39" t="n">
-        <v>3021504.489059464</v>
+        <v>3636380.862215783</v>
       </c>
       <c r="J39" t="n">
-        <v>2636331.941590649</v>
+        <v>3636206.28700262</v>
       </c>
       <c r="K39" t="n">
-        <v>2941541.176888843</v>
+        <v>3636031.720170464</v>
       </c>
       <c r="L39" t="n">
-        <v>2733374.23257785</v>
+        <v>3635857.161718901</v>
       </c>
       <c r="M39" t="n">
-        <v>2832904.24527338</v>
+        <v>3635682.611647536</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>ОПП Нижний Новгород</t>
+          <t>Магазин НКЗ</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>9243870.250449417</v>
+        <v>3775903.400445318</v>
       </c>
       <c r="C40" t="n">
-        <v>8383561.999180762</v>
+        <v>3775899.223234543</v>
       </c>
       <c r="D40" t="n">
-        <v>8056068.506508023</v>
+        <v>3775907.706438017</v>
       </c>
       <c r="E40" t="n">
-        <v>7931396.666280587</v>
+        <v>3775908.104823897</v>
       </c>
       <c r="F40" t="n">
-        <v>7883932.204426739</v>
+        <v>3775919.207304883</v>
       </c>
       <c r="G40" t="n">
-        <v>7865859.559010297</v>
+        <v>3775916.413321764</v>
       </c>
       <c r="H40" t="n">
-        <v>7858977.798606228</v>
+        <v>3775927.218876287</v>
       </c>
       <c r="I40" t="n">
-        <v>7856358.806388682</v>
+        <v>3775914.966491299</v>
       </c>
       <c r="J40" t="n">
-        <v>7855365.255395308</v>
+        <v>3775922.070334723</v>
       </c>
       <c r="K40" t="n">
-        <v>7854992.8384987</v>
+        <v>3775910.889642786</v>
       </c>
       <c r="L40" t="n">
-        <v>7854858.604552288</v>
+        <v>3775920.719201216</v>
       </c>
       <c r="M40" t="n">
-        <v>7854815.931719691</v>
+        <v>3775917.690561113</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>ОПП НКЗ</t>
+          <t>Магазин НН Бурнаковский</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>6483218.83573053</v>
+        <v>2219351.29797976</v>
       </c>
       <c r="C41" t="n">
-        <v>6403353.775009755</v>
+        <v>2219351.300541319</v>
       </c>
       <c r="D41" t="n">
-        <v>6328967.019801695</v>
+        <v>2219351.303048145</v>
       </c>
       <c r="E41" t="n">
-        <v>6263566.810848292</v>
+        <v>2219351.305500238</v>
       </c>
       <c r="F41" t="n">
-        <v>6193352.238957413</v>
+        <v>2219351.307897598</v>
       </c>
       <c r="G41" t="n">
-        <v>6122611.827352356</v>
+        <v>2219351.310240224</v>
       </c>
       <c r="H41" t="n">
-        <v>6062502.186854007</v>
+        <v>2219351.312528119</v>
       </c>
       <c r="I41" t="n">
-        <v>5999434.295457805</v>
+        <v>2219351.314761281</v>
       </c>
       <c r="J41" t="n">
-        <v>5934556.547851654</v>
+        <v>2219351.316939709</v>
       </c>
       <c r="K41" t="n">
-        <v>5872527.730340283</v>
+        <v>2219351.319063406</v>
       </c>
       <c r="L41" t="n">
-        <v>5814076.665003648</v>
+        <v>2219351.321132368</v>
       </c>
       <c r="M41" t="n">
-        <v>5752776.258649856</v>
+        <v>2219351.323146598</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Пром</t>
+          <t>Магазин НН Ларина</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>6212365.485416903</v>
+        <v>3074076.009368683</v>
       </c>
       <c r="C42" t="n">
-        <v>6212365.485417192</v>
+        <v>3074078.756448651</v>
       </c>
       <c r="D42" t="n">
-        <v>6212365.48541748</v>
+        <v>3074070.495216202</v>
       </c>
       <c r="E42" t="n">
-        <v>6212365.485417766</v>
+        <v>3074076.758271981</v>
       </c>
       <c r="F42" t="n">
-        <v>6212365.485418044</v>
+        <v>3074082.342559054</v>
       </c>
       <c r="G42" t="n">
-        <v>6212365.485418319</v>
+        <v>3074072.51479442</v>
       </c>
       <c r="H42" t="n">
-        <v>6212365.485418599</v>
+        <v>3074076.602699454</v>
       </c>
       <c r="I42" t="n">
-        <v>6212365.48541886</v>
+        <v>3074076.76299981</v>
       </c>
       <c r="J42" t="n">
-        <v>6212365.485419136</v>
+        <v>3074072.529613022</v>
       </c>
       <c r="K42" t="n">
-        <v>6212365.485419397</v>
+        <v>3074077.801974384</v>
       </c>
       <c r="L42" t="n">
-        <v>6212365.485419659</v>
+        <v>3074074.661879084</v>
       </c>
       <c r="M42" t="n">
-        <v>6212365.485419916</v>
+        <v>3074070.005001293</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Север Авто</t>
+          <t>Магазин СПб Богатырский</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4678542.895526628</v>
+        <v>2599293.814630448</v>
       </c>
       <c r="C43" t="n">
-        <v>4678542.895526628</v>
+        <v>2599293.814630448</v>
       </c>
       <c r="D43" t="n">
-        <v>4678542.895526628</v>
+        <v>2599293.814630448</v>
       </c>
       <c r="E43" t="n">
-        <v>4678542.895526628</v>
+        <v>2599293.814630448</v>
       </c>
       <c r="F43" t="n">
-        <v>4678542.895526628</v>
+        <v>2599293.814630448</v>
       </c>
       <c r="G43" t="n">
-        <v>4678542.895526628</v>
+        <v>2599293.814630448</v>
       </c>
       <c r="H43" t="n">
-        <v>4678542.895526628</v>
+        <v>2599293.814630448</v>
       </c>
       <c r="I43" t="n">
-        <v>4678542.895526628</v>
+        <v>2599293.814630448</v>
       </c>
       <c r="J43" t="n">
-        <v>4678542.895526628</v>
+        <v>2599293.814630448</v>
       </c>
       <c r="K43" t="n">
-        <v>4678542.895526628</v>
+        <v>2599293.814630448</v>
       </c>
       <c r="L43" t="n">
-        <v>4678542.895526628</v>
+        <v>2599293.814630448</v>
       </c>
       <c r="M43" t="n">
-        <v>4678542.895526628</v>
+        <v>2599293.814630448</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Юг Авто</t>
+          <t>Магазин СПб Софийская</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>8463159.862330616</v>
+        <v>4786964.579939205</v>
       </c>
       <c r="C44" t="n">
-        <v>8463159.86133492</v>
+        <v>4786964.579939205</v>
       </c>
       <c r="D44" t="n">
-        <v>8463159.860339314</v>
+        <v>4786964.579939205</v>
       </c>
       <c r="E44" t="n">
-        <v>8463159.859343827</v>
+        <v>4786964.579939205</v>
       </c>
       <c r="F44" t="n">
-        <v>8463159.858348191</v>
+        <v>4786964.579939205</v>
       </c>
       <c r="G44" t="n">
-        <v>8463159.857352555</v>
+        <v>4786964.579939205</v>
       </c>
       <c r="H44" t="n">
-        <v>8463159.856357008</v>
+        <v>4786964.579939205</v>
       </c>
       <c r="I44" t="n">
-        <v>8463159.855361491</v>
+        <v>4786964.579939205</v>
       </c>
       <c r="J44" t="n">
-        <v>8463159.854365975</v>
+        <v>4786964.579939205</v>
       </c>
       <c r="K44" t="n">
-        <v>8463159.853370398</v>
+        <v>4786964.579939205</v>
       </c>
       <c r="L44" t="n">
-        <v>8463159.852374732</v>
+        <v>4786964.579939205</v>
       </c>
       <c r="M44" t="n">
-        <v>8463159.851379305</v>
+        <v>4786964.579939205</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>ОПП Сургут</t>
+          <t>Магазин СПб Энергетиков</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3265311.985426477</v>
+        <v>2494575.092286483</v>
       </c>
       <c r="C45" t="n">
-        <v>3265311.985426477</v>
+        <v>2494574.955835531</v>
       </c>
       <c r="D45" t="n">
-        <v>3265311.985426477</v>
+        <v>2494574.819384588</v>
       </c>
       <c r="E45" t="n">
-        <v>3265311.985426477</v>
+        <v>2494574.682933662</v>
       </c>
       <c r="F45" t="n">
-        <v>3265311.985426477</v>
+        <v>2494574.546482749</v>
       </c>
       <c r="G45" t="n">
-        <v>3265311.985426477</v>
+        <v>2494574.41003185</v>
       </c>
       <c r="H45" t="n">
-        <v>3265311.985426477</v>
+        <v>2494574.273580971</v>
       </c>
       <c r="I45" t="n">
-        <v>3265311.985426477</v>
+        <v>2494574.137130101</v>
       </c>
       <c r="J45" t="n">
-        <v>3265311.985426477</v>
+        <v>2494574.000679246</v>
       </c>
       <c r="K45" t="n">
-        <v>3265311.985426477</v>
+        <v>2494573.864228404</v>
       </c>
       <c r="L45" t="n">
-        <v>3265311.985426477</v>
+        <v>2494573.727777582</v>
       </c>
       <c r="M45" t="n">
-        <v>3265311.985426477</v>
+        <v>2494573.591326769</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>ОПП Хабаровск</t>
+          <t>Магазин Сургут</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>8497264.159350324</v>
+        <v>2078680.999389232</v>
       </c>
       <c r="C46" t="n">
-        <v>8344898.414432159</v>
+        <v>2078680.999389232</v>
       </c>
       <c r="D46" t="n">
-        <v>8330164.038251124</v>
+        <v>2078680.999389232</v>
       </c>
       <c r="E46" t="n">
-        <v>8328730.804540159</v>
+        <v>2078680.999389232</v>
       </c>
       <c r="F46" t="n">
-        <v>8328582.332655696</v>
+        <v>2078680.999389231</v>
       </c>
       <c r="G46" t="n">
-        <v>8328557.29607635</v>
+        <v>2078680.999389231</v>
       </c>
       <c r="H46" t="n">
-        <v>8328543.504792607</v>
+        <v>2078680.999389231</v>
       </c>
       <c r="I46" t="n">
-        <v>8328530.170354256</v>
+        <v>2078680.999389231</v>
       </c>
       <c r="J46" t="n">
-        <v>8328516.307723617</v>
+        <v>2078680.999389231</v>
       </c>
       <c r="K46" t="n">
-        <v>8328501.882105216</v>
+        <v>2078680.999389232</v>
       </c>
       <c r="L46" t="n">
-        <v>8328486.953003177</v>
+        <v>2078680.999389232</v>
       </c>
       <c r="M46" t="n">
-        <v>8328471.591193005</v>
+        <v>2078680.999389232</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Магазин Владивосток</t>
+          <t>Магазин Сургут 2</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>741139.246373276</v>
+        <v>1795419.006292874</v>
       </c>
       <c r="C47" t="n">
-        <v>741076.5921753263</v>
+        <v>1786222.477916889</v>
       </c>
       <c r="D47" t="n">
-        <v>741013.9432740188</v>
+        <v>1777073.056168311</v>
       </c>
       <c r="E47" t="n">
-        <v>740951.2996689044</v>
+        <v>1767970.499756703</v>
       </c>
       <c r="F47" t="n">
-        <v>740888.6613595344</v>
+        <v>1758914.568627573</v>
       </c>
       <c r="G47" t="n">
-        <v>740826.0283454631</v>
+        <v>1749905.023956037</v>
       </c>
       <c r="H47" t="n">
-        <v>740763.4006262424</v>
+        <v>1740941.628140527</v>
       </c>
       <c r="I47" t="n">
-        <v>740700.7782014238</v>
+        <v>1732024.14479652</v>
       </c>
       <c r="J47" t="n">
-        <v>740638.1610705601</v>
+        <v>1723152.338750307</v>
       </c>
       <c r="K47" t="n">
-        <v>740575.5492332028</v>
+        <v>1714325.976032791</v>
       </c>
       <c r="L47" t="n">
-        <v>740512.9426889075</v>
+        <v>1705544.823873315</v>
       </c>
       <c r="M47" t="n">
-        <v>740450.3414372227</v>
+        <v>1696808.65069352</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Магазин Воронеж</t>
+          <t>Магазин Хабаровск Индустриальный</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>508496.6186977454</v>
+        <v>3242351.809186883</v>
       </c>
       <c r="C48" t="n">
-        <v>506354.6797346277</v>
+        <v>3242347.610830858</v>
       </c>
       <c r="D48" t="n">
-        <v>504221.7632553452</v>
+        <v>3242343.16130428</v>
       </c>
       <c r="E48" t="n">
-        <v>502097.8312545104</v>
+        <v>3242339.095314234</v>
       </c>
       <c r="F48" t="n">
-        <v>499982.8458868304</v>
+        <v>3242334.635163553</v>
       </c>
       <c r="G48" t="n">
-        <v>497876.7694664249</v>
+        <v>3242330.549610183</v>
       </c>
       <c r="H48" t="n">
-        <v>495779.5644661587</v>
+        <v>3242326.791576311</v>
       </c>
       <c r="I48" t="n">
-        <v>493691.1935169735</v>
+        <v>3242322.744816341</v>
       </c>
       <c r="J48" t="n">
-        <v>491611.6194072184</v>
+        <v>3242318.498056501</v>
       </c>
       <c r="K48" t="n">
-        <v>489540.8050819908</v>
+        <v>3242314.338283077</v>
       </c>
       <c r="L48" t="n">
-        <v>487478.7136424721</v>
+        <v>3242309.985760912</v>
       </c>
       <c r="M48" t="n">
-        <v>485425.3083452743</v>
+        <v>3242305.664325602</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Магазин Казань / ПВЗ Казань</t>
+          <t>ПВЗ Инфор</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>561268.2633127267</v>
+        <v>385524.7713581026</v>
       </c>
       <c r="C49" t="n">
-        <v>561268.2633127267</v>
+        <v>385524.733136354</v>
       </c>
       <c r="D49" t="n">
-        <v>561268.2633127267</v>
+        <v>385524.6949146083</v>
       </c>
       <c r="E49" t="n">
-        <v>561268.2633127267</v>
+        <v>385524.6566928737</v>
       </c>
       <c r="F49" t="n">
-        <v>561268.2633127267</v>
+        <v>385524.6184711382</v>
       </c>
       <c r="G49" t="n">
-        <v>561268.2633127267</v>
+        <v>385524.5802494027</v>
       </c>
       <c r="H49" t="n">
-        <v>561268.2633127267</v>
+        <v>385524.5420276765</v>
       </c>
       <c r="I49" t="n">
-        <v>561268.2633127267</v>
+        <v>385524.5038059503</v>
       </c>
       <c r="J49" t="n">
-        <v>561268.2633127267</v>
+        <v>385524.4655842315</v>
       </c>
       <c r="K49" t="n">
-        <v>561268.2633127267</v>
+        <v>385524.4273625184</v>
       </c>
       <c r="L49" t="n">
-        <v>561268.2633127267</v>
+        <v>385524.3891407996</v>
       </c>
       <c r="M49" t="n">
-        <v>561268.2633127267</v>
+        <v>385524.350919093</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Магазин Кемерово</t>
+          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1036721.149294915</v>
+        <v>1501241.973860696</v>
       </c>
       <c r="C50" t="n">
-        <v>1036720.845762558</v>
+        <v>1501156.941469148</v>
       </c>
       <c r="D50" t="n">
-        <v>1036720.542230293</v>
+        <v>1501071.550507039</v>
       </c>
       <c r="E50" t="n">
-        <v>1036720.238698113</v>
+        <v>1500991.425697491</v>
       </c>
       <c r="F50" t="n">
-        <v>1036719.935166022</v>
+        <v>1500912.931417689</v>
       </c>
       <c r="G50" t="n">
-        <v>1036719.631634027</v>
+        <v>1500832.784997731</v>
       </c>
       <c r="H50" t="n">
-        <v>1036719.328102108</v>
+        <v>1500751.118564434</v>
       </c>
       <c r="I50" t="n">
-        <v>1036719.024570288</v>
+        <v>1500666.925463229</v>
       </c>
       <c r="J50" t="n">
-        <v>1036718.721038553</v>
+        <v>1500588.278263554</v>
       </c>
       <c r="K50" t="n">
-        <v>1036718.417506905</v>
+        <v>1500510.101165824</v>
       </c>
       <c r="L50" t="n">
-        <v>1036718.113975352</v>
+        <v>1500430.241100103</v>
       </c>
       <c r="M50" t="n">
-        <v>1036717.810443882</v>
+        <v>1500346.894095026</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Магазин Краснодар</t>
+          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2249285.233532108</v>
+        <v>1241898.296783172</v>
       </c>
       <c r="C51" t="n">
-        <v>2242166.9969534</v>
+        <v>1241898.125119627</v>
       </c>
       <c r="D51" t="n">
-        <v>2235071.287216221</v>
+        <v>1241897.953456108</v>
       </c>
       <c r="E51" t="n">
-        <v>2227998.033030623</v>
+        <v>1241897.781792596</v>
       </c>
       <c r="F51" t="n">
-        <v>2220947.163332301</v>
+        <v>1241897.610129103</v>
       </c>
       <c r="G51" t="n">
-        <v>2213918.60728182</v>
+        <v>1241897.438465662</v>
       </c>
       <c r="H51" t="n">
-        <v>2206912.294263934</v>
+        <v>1241897.266802225</v>
       </c>
       <c r="I51" t="n">
-        <v>2199928.153886883</v>
+        <v>1241897.095138825</v>
       </c>
       <c r="J51" t="n">
-        <v>2192966.115981653</v>
+        <v>1241896.923475448</v>
       </c>
       <c r="K51" t="n">
-        <v>2186026.110601311</v>
+        <v>1241896.751812074</v>
       </c>
       <c r="L51" t="n">
-        <v>2179108.068020266</v>
+        <v>1241896.580148749</v>
       </c>
       <c r="M51" t="n">
-        <v>2172211.918733599</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Красноярск 1</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>2532304.49119377</v>
-      </c>
-      <c r="C52" t="n">
-        <v>2533651.18623649</v>
-      </c>
-      <c r="D52" t="n">
-        <v>2534165.399491222</v>
-      </c>
-      <c r="E52" t="n">
-        <v>2533848.096118913</v>
-      </c>
-      <c r="F52" t="n">
-        <v>2532701.295262496</v>
-      </c>
-      <c r="G52" t="n">
-        <v>2530728.062346349</v>
-      </c>
-      <c r="H52" t="n">
-        <v>2527932.498905091</v>
-      </c>
-      <c r="I52" t="n">
-        <v>2524319.729986968</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2519895.889183209</v>
-      </c>
-      <c r="K52" t="n">
-        <v>2514668.101347036</v>
-      </c>
-      <c r="L52" t="n">
-        <v>2508644.463069563</v>
-      </c>
-      <c r="M52" t="n">
-        <v>2501834.020991687</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК 3</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>1412653.337225311</v>
-      </c>
-      <c r="C53" t="n">
-        <v>1412077.789935039</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1411546.462379627</v>
-      </c>
-      <c r="E53" t="n">
-        <v>1411070.899691579</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1410565.108773499</v>
-      </c>
-      <c r="G53" t="n">
-        <v>1409996.561906576</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1409443.314715674</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1408956.941101069</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1408471.969335953</v>
-      </c>
-      <c r="K53" t="n">
-        <v>1407920.850078583</v>
-      </c>
-      <c r="L53" t="n">
-        <v>1407352.572363159</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1406846.638991015</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Балашиха</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>1043763.761802515</v>
-      </c>
-      <c r="C54" t="n">
-        <v>1028758.000155309</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1013000.03797369</v>
-      </c>
-      <c r="E54" t="n">
-        <v>996531.1605393266</v>
-      </c>
-      <c r="F54" t="n">
-        <v>979393.9967833871</v>
-      </c>
-      <c r="G54" t="n">
-        <v>961632.3388985595</v>
-      </c>
-      <c r="H54" t="n">
-        <v>943290.9592211612</v>
-      </c>
-      <c r="I54" t="n">
-        <v>924415.4251061152</v>
-      </c>
-      <c r="J54" t="n">
-        <v>905051.9151769745</v>
-      </c>
-      <c r="K54" t="n">
-        <v>885247.0343909687</v>
-      </c>
-      <c r="L54" t="n">
-        <v>865047.6324463295</v>
-      </c>
-      <c r="M54" t="n">
-        <v>844500.6241199165</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Кунцево</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>3382185.355306637</v>
-      </c>
-      <c r="C55" t="n">
-        <v>3382185.355306637</v>
-      </c>
-      <c r="D55" t="n">
-        <v>3382185.355306637</v>
-      </c>
-      <c r="E55" t="n">
-        <v>3382185.355306637</v>
-      </c>
-      <c r="F55" t="n">
-        <v>3382185.355306637</v>
-      </c>
-      <c r="G55" t="n">
-        <v>3382185.355306637</v>
-      </c>
-      <c r="H55" t="n">
-        <v>3382185.355306637</v>
-      </c>
-      <c r="I55" t="n">
-        <v>3382185.355306637</v>
-      </c>
-      <c r="J55" t="n">
-        <v>3382185.355306637</v>
-      </c>
-      <c r="K55" t="n">
-        <v>3382185.355306637</v>
-      </c>
-      <c r="L55" t="n">
-        <v>3382185.355306637</v>
-      </c>
-      <c r="M55" t="n">
-        <v>3382185.355306637</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Мурманск</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>2862435.842987531</v>
-      </c>
-      <c r="C56" t="n">
-        <v>2872427.802317974</v>
-      </c>
-      <c r="D56" t="n">
-        <v>2871768.78029409</v>
-      </c>
-      <c r="E56" t="n">
-        <v>2862914.021556752</v>
-      </c>
-      <c r="F56" t="n">
-        <v>2878770.51347301</v>
-      </c>
-      <c r="G56" t="n">
-        <v>2860412.056820166</v>
-      </c>
-      <c r="H56" t="n">
-        <v>2876052.171375141</v>
-      </c>
-      <c r="I56" t="n">
-        <v>2867570.121431797</v>
-      </c>
-      <c r="J56" t="n">
-        <v>2866489.243753485</v>
-      </c>
-      <c r="K56" t="n">
-        <v>2876832.242583896</v>
-      </c>
-      <c r="L56" t="n">
-        <v>2860166.351572603</v>
-      </c>
-      <c r="M56" t="n">
-        <v>2878417.237504942</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Нижневартовск</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>3488927.309376042</v>
-      </c>
-      <c r="C57" t="n">
-        <v>3488846.731978671</v>
-      </c>
-      <c r="D57" t="n">
-        <v>3488766.156442252</v>
-      </c>
-      <c r="E57" t="n">
-        <v>3488685.582766741</v>
-      </c>
-      <c r="F57" t="n">
-        <v>3488605.01095209</v>
-      </c>
-      <c r="G57" t="n">
-        <v>3488524.440998265</v>
-      </c>
-      <c r="H57" t="n">
-        <v>3488443.872905212</v>
-      </c>
-      <c r="I57" t="n">
-        <v>3488363.306672894</v>
-      </c>
-      <c r="J57" t="n">
-        <v>3488282.742301265</v>
-      </c>
-      <c r="K57" t="n">
-        <v>3488202.179790287</v>
-      </c>
-      <c r="L57" t="n">
-        <v>3488121.619139917</v>
-      </c>
-      <c r="M57" t="n">
-        <v>3488041.06035011</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НКЗ</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>3726118.240984096</v>
-      </c>
-      <c r="C58" t="n">
-        <v>3726118.240990941</v>
-      </c>
-      <c r="D58" t="n">
-        <v>3726118.240997702</v>
-      </c>
-      <c r="E58" t="n">
-        <v>3726118.241004383</v>
-      </c>
-      <c r="F58" t="n">
-        <v>3726118.241010989</v>
-      </c>
-      <c r="G58" t="n">
-        <v>3726118.241017517</v>
-      </c>
-      <c r="H58" t="n">
-        <v>3726118.241023964</v>
-      </c>
-      <c r="I58" t="n">
-        <v>3726118.241030335</v>
-      </c>
-      <c r="J58" t="n">
-        <v>3726118.241036624</v>
-      </c>
-      <c r="K58" t="n">
-        <v>3726118.241042838</v>
-      </c>
-      <c r="L58" t="n">
-        <v>3726118.241048971</v>
-      </c>
-      <c r="M58" t="n">
-        <v>3726118.241055024</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Бурнаковский</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>2176700.140498068</v>
-      </c>
-      <c r="C59" t="n">
-        <v>2164507.10190386</v>
-      </c>
-      <c r="D59" t="n">
-        <v>2153934.039530685</v>
-      </c>
-      <c r="E59" t="n">
-        <v>2145235.881645652</v>
-      </c>
-      <c r="F59" t="n">
-        <v>2138621.191308794</v>
-      </c>
-      <c r="G59" t="n">
-        <v>2134247.138205993</v>
-      </c>
-      <c r="H59" t="n">
-        <v>2132215.83439171</v>
-      </c>
-      <c r="I59" t="n">
-        <v>2132572.124581135</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2135302.870395454</v>
-      </c>
-      <c r="K59" t="n">
-        <v>2140337.715045102</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2147551.26449812</v>
-      </c>
-      <c r="M59" t="n">
-        <v>2156766.577268074</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Ларина</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>3386694.164053395</v>
-      </c>
-      <c r="C60" t="n">
-        <v>3386457.668108687</v>
-      </c>
-      <c r="D60" t="n">
-        <v>3386246.232468829</v>
-      </c>
-      <c r="E60" t="n">
-        <v>3386016.462559551</v>
-      </c>
-      <c r="F60" t="n">
-        <v>3385792.002427265</v>
-      </c>
-      <c r="G60" t="n">
-        <v>3385574.857925586</v>
-      </c>
-      <c r="H60" t="n">
-        <v>3385346.497295819</v>
-      </c>
-      <c r="I60" t="n">
-        <v>3385139.589587204</v>
-      </c>
-      <c r="J60" t="n">
-        <v>3384918.987158194</v>
-      </c>
-      <c r="K60" t="n">
-        <v>3384691.390949294</v>
-      </c>
-      <c r="L60" t="n">
-        <v>3384471.495586827</v>
-      </c>
-      <c r="M60" t="n">
-        <v>3384253.185743794</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Богатырский</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>2587617.403287829</v>
-      </c>
-      <c r="C61" t="n">
-        <v>2587617.403287829</v>
-      </c>
-      <c r="D61" t="n">
-        <v>2587617.403287829</v>
-      </c>
-      <c r="E61" t="n">
-        <v>2587617.403287829</v>
-      </c>
-      <c r="F61" t="n">
-        <v>2587617.403287829</v>
-      </c>
-      <c r="G61" t="n">
-        <v>2587617.403287829</v>
-      </c>
-      <c r="H61" t="n">
-        <v>2587617.403287829</v>
-      </c>
-      <c r="I61" t="n">
-        <v>2587617.403287829</v>
-      </c>
-      <c r="J61" t="n">
-        <v>2587617.403287829</v>
-      </c>
-      <c r="K61" t="n">
-        <v>2587617.403287829</v>
-      </c>
-      <c r="L61" t="n">
-        <v>2587617.403287829</v>
-      </c>
-      <c r="M61" t="n">
-        <v>2587617.403287829</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Софийская</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>4776563.378553279</v>
-      </c>
-      <c r="C62" t="n">
-        <v>4776548.106870204</v>
-      </c>
-      <c r="D62" t="n">
-        <v>4776525.18571153</v>
-      </c>
-      <c r="E62" t="n">
-        <v>4776496.99262039</v>
-      </c>
-      <c r="F62" t="n">
-        <v>4776466.451949618</v>
-      </c>
-      <c r="G62" t="n">
-        <v>4776436.73153537</v>
-      </c>
-      <c r="H62" t="n">
-        <v>4776410.914124249</v>
-      </c>
-      <c r="I62" t="n">
-        <v>4776391.677629409</v>
-      </c>
-      <c r="J62" t="n">
-        <v>4776381.017374108</v>
-      </c>
-      <c r="K62" t="n">
-        <v>4776380.039127775</v>
-      </c>
-      <c r="L62" t="n">
-        <v>4776388.844400695</v>
-      </c>
-      <c r="M62" t="n">
-        <v>4776406.51989841</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Энергетиков</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>2421399.863756941</v>
-      </c>
-      <c r="C63" t="n">
-        <v>2421409.243527707</v>
-      </c>
-      <c r="D63" t="n">
-        <v>2421416.078693634</v>
-      </c>
-      <c r="E63" t="n">
-        <v>2421390.347202841</v>
-      </c>
-      <c r="F63" t="n">
-        <v>2421411.141590436</v>
-      </c>
-      <c r="G63" t="n">
-        <v>2421378.540163852</v>
-      </c>
-      <c r="H63" t="n">
-        <v>2421408.552420862</v>
-      </c>
-      <c r="I63" t="n">
-        <v>2421395.912801389</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2421404.27884573</v>
-      </c>
-      <c r="K63" t="n">
-        <v>2421403.43130447</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2421397.637952254</v>
-      </c>
-      <c r="M63" t="n">
-        <v>2421412.782314551</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>2078909.830973132</v>
-      </c>
-      <c r="C64" t="n">
-        <v>2078909.830973132</v>
-      </c>
-      <c r="D64" t="n">
-        <v>2078909.830973132</v>
-      </c>
-      <c r="E64" t="n">
-        <v>2078909.830973132</v>
-      </c>
-      <c r="F64" t="n">
-        <v>2078909.830973132</v>
-      </c>
-      <c r="G64" t="n">
-        <v>2078909.830973132</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2078909.830973132</v>
-      </c>
-      <c r="I64" t="n">
-        <v>2078909.830973132</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2078909.830973132</v>
-      </c>
-      <c r="K64" t="n">
-        <v>2078909.830973132</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2078909.830973132</v>
-      </c>
-      <c r="M64" t="n">
-        <v>2078909.830973132</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут 2</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>1834658.744610461</v>
-      </c>
-      <c r="C65" t="n">
-        <v>1692769.913824698</v>
-      </c>
-      <c r="D65" t="n">
-        <v>1561854.48087703</v>
-      </c>
-      <c r="E65" t="n">
-        <v>1441063.785168549</v>
-      </c>
-      <c r="F65" t="n">
-        <v>1329614.79981041</v>
-      </c>
-      <c r="G65" t="n">
-        <v>1226785.055644226</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1131907.957828542</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1044368.464631134</v>
-      </c>
-      <c r="J65" t="n">
-        <v>963599.1004148494</v>
-      </c>
-      <c r="K65" t="n">
-        <v>889076.2769711328</v>
-      </c>
-      <c r="L65" t="n">
-        <v>820316.8993542464</v>
-      </c>
-      <c r="M65" t="n">
-        <v>756875.2342134686</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Хабаровск Индустриальный</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>2883789.054806266</v>
-      </c>
-      <c r="C66" t="n">
-        <v>2883788.622207631</v>
-      </c>
-      <c r="D66" t="n">
-        <v>2883788.730012073</v>
-      </c>
-      <c r="E66" t="n">
-        <v>2883789.360459759</v>
-      </c>
-      <c r="F66" t="n">
-        <v>2883790.409690396</v>
-      </c>
-      <c r="G66" t="n">
-        <v>2883791.704853361</v>
-      </c>
-      <c r="H66" t="n">
-        <v>2883793.032583308</v>
-      </c>
-      <c r="I66" t="n">
-        <v>2883794.174150052</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2883794.941492097</v>
-      </c>
-      <c r="K66" t="n">
-        <v>2883795.208197712</v>
-      </c>
-      <c r="L66" t="n">
-        <v>2883794.930329848</v>
-      </c>
-      <c r="M66" t="n">
-        <v>2883794.153664291</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ Инфор</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>867496.2747945681</v>
-      </c>
-      <c r="C67" t="n">
-        <v>796396.7277098452</v>
-      </c>
-      <c r="D67" t="n">
-        <v>731333.4118120861</v>
-      </c>
-      <c r="E67" t="n">
-        <v>683494.5627330819</v>
-      </c>
-      <c r="F67" t="n">
-        <v>711005.5454300363</v>
-      </c>
-      <c r="G67" t="n">
-        <v>616396.5970013761</v>
-      </c>
-      <c r="H67" t="n">
-        <v>669746.7893210668</v>
-      </c>
-      <c r="I67" t="n">
-        <v>724797.5854264938</v>
-      </c>
-      <c r="J67" t="n">
-        <v>572920.9456960263</v>
-      </c>
-      <c r="K67" t="n">
-        <v>605068.3201489067</v>
-      </c>
-      <c r="L67" t="n">
-        <v>601742.8847282119</v>
-      </c>
-      <c r="M67" t="n">
-        <v>537688.5009229118</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>1187665.174494006</v>
-      </c>
-      <c r="C68" t="n">
-        <v>1187664.981157146</v>
-      </c>
-      <c r="D68" t="n">
-        <v>1187664.787820309</v>
-      </c>
-      <c r="E68" t="n">
-        <v>1187664.594483506</v>
-      </c>
-      <c r="F68" t="n">
-        <v>1187664.401146732</v>
-      </c>
-      <c r="G68" t="n">
-        <v>1187664.207810003</v>
-      </c>
-      <c r="H68" t="n">
-        <v>1187664.014473278</v>
-      </c>
-      <c r="I68" t="n">
-        <v>1187663.821136612</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1187663.627799965</v>
-      </c>
-      <c r="K68" t="n">
-        <v>1187663.434463356</v>
-      </c>
-      <c r="L68" t="n">
-        <v>1187663.241126763</v>
-      </c>
-      <c r="M68" t="n">
-        <v>1187663.047790211</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>1179547.639640503</v>
-      </c>
-      <c r="C69" t="n">
-        <v>1179547.595026374</v>
-      </c>
-      <c r="D69" t="n">
-        <v>1179547.550412241</v>
-      </c>
-      <c r="E69" t="n">
-        <v>1179547.505798094</v>
-      </c>
-      <c r="F69" t="n">
-        <v>1179547.461183973</v>
-      </c>
-      <c r="G69" t="n">
-        <v>1179547.416569829</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1179547.371955704</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1179547.327341586</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1179547.282727469</v>
-      </c>
-      <c r="K69" t="n">
-        <v>1179547.238113329</v>
-      </c>
-      <c r="L69" t="n">
-        <v>1179547.193499193</v>
-      </c>
-      <c r="M69" t="n">
-        <v>1179547.148885094</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ковригин  (Kz)</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>3798895.277635595</v>
-      </c>
-      <c r="C70" t="n">
-        <v>3798895.277635595</v>
-      </c>
-      <c r="D70" t="n">
-        <v>3798895.277635595</v>
-      </c>
-      <c r="E70" t="n">
-        <v>3798895.277635595</v>
-      </c>
-      <c r="F70" t="n">
-        <v>3798895.277635595</v>
-      </c>
-      <c r="G70" t="n">
-        <v>3798895.277635595</v>
-      </c>
-      <c r="H70" t="n">
-        <v>3798895.277635595</v>
-      </c>
-      <c r="I70" t="n">
-        <v>3798895.277635595</v>
-      </c>
-      <c r="J70" t="n">
-        <v>3798895.277635595</v>
-      </c>
-      <c r="K70" t="n">
-        <v>3798895.277635595</v>
-      </c>
-      <c r="L70" t="n">
-        <v>3798895.277635595</v>
-      </c>
-      <c r="M70" t="n">
-        <v>3798895.277635595</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Концевой</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>13368041.13345144</v>
-      </c>
-      <c r="C71" t="n">
-        <v>13045334.37507154</v>
-      </c>
-      <c r="D71" t="n">
-        <v>12687157.27765568</v>
-      </c>
-      <c r="E71" t="n">
-        <v>12312207.5701533</v>
-      </c>
-      <c r="F71" t="n">
-        <v>11939693.34489605</v>
-      </c>
-      <c r="G71" t="n">
-        <v>11588101.99699646</v>
-      </c>
-      <c r="H71" t="n">
-        <v>11274151.30227006</v>
-      </c>
-      <c r="I71" t="n">
-        <v>11011995.75498367</v>
-      </c>
-      <c r="J71" t="n">
-        <v>10812706.63645867</v>
-      </c>
-      <c r="K71" t="n">
-        <v>10684001.46076826</v>
-      </c>
-      <c r="L71" t="n">
-        <v>10630175.34315394</v>
-      </c>
-      <c r="M71" t="n">
-        <v>10652182.94593527</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мараев (АлРоса)</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>3247336.699816925</v>
-      </c>
-      <c r="C72" t="n">
-        <v>3247552.74299719</v>
-      </c>
-      <c r="D72" t="n">
-        <v>3247678.398677754</v>
-      </c>
-      <c r="E72" t="n">
-        <v>3247993.684137315</v>
-      </c>
-      <c r="F72" t="n">
-        <v>3248554.287343361</v>
-      </c>
-      <c r="G72" t="n">
-        <v>3248642.294762495</v>
-      </c>
-      <c r="H72" t="n">
-        <v>3248961.028854749</v>
-      </c>
-      <c r="I72" t="n">
-        <v>3248982.122015011</v>
-      </c>
-      <c r="J72" t="n">
-        <v>3248719.970407467</v>
-      </c>
-      <c r="K72" t="n">
-        <v>3248498.855045612</v>
-      </c>
-      <c r="L72" t="n">
-        <v>3248677.071736254</v>
-      </c>
-      <c r="M72" t="n">
-        <v>3248008.114642552</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мищенко (МетИнв)</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>3105499.970963091</v>
-      </c>
-      <c r="C73" t="n">
-        <v>3105498.981387705</v>
-      </c>
-      <c r="D73" t="n">
-        <v>3105497.991812646</v>
-      </c>
-      <c r="E73" t="n">
-        <v>3105497.00223799</v>
-      </c>
-      <c r="F73" t="n">
-        <v>3105496.012663513</v>
-      </c>
-      <c r="G73" t="n">
-        <v>3105495.023089483</v>
-      </c>
-      <c r="H73" t="n">
-        <v>3105494.033515617</v>
-      </c>
-      <c r="I73" t="n">
-        <v>3105493.043942153</v>
-      </c>
-      <c r="J73" t="n">
-        <v>3105492.054369017</v>
-      </c>
-      <c r="K73" t="n">
-        <v>3105491.064796194</v>
-      </c>
-      <c r="L73" t="n">
-        <v>3105490.07522361</v>
-      </c>
-      <c r="M73" t="n">
-        <v>3105489.085651428</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Попов</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>16045812.7035569</v>
-      </c>
-      <c r="C74" t="n">
-        <v>16045812.7035569</v>
-      </c>
-      <c r="D74" t="n">
-        <v>16045812.7035569</v>
-      </c>
-      <c r="E74" t="n">
-        <v>16045812.7035569</v>
-      </c>
-      <c r="F74" t="n">
-        <v>16045812.7035569</v>
-      </c>
-      <c r="G74" t="n">
-        <v>16045812.7035569</v>
-      </c>
-      <c r="H74" t="n">
-        <v>16045812.7035569</v>
-      </c>
-      <c r="I74" t="n">
-        <v>16045812.7035569</v>
-      </c>
-      <c r="J74" t="n">
-        <v>16045812.7035569</v>
-      </c>
-      <c r="K74" t="n">
-        <v>16045812.7035569</v>
-      </c>
-      <c r="L74" t="n">
-        <v>16045812.7035569</v>
-      </c>
-      <c r="M74" t="n">
-        <v>16045812.7035569</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Филиппов</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>27235479.59370049</v>
-      </c>
-      <c r="C75" t="n">
-        <v>26683485.29140934</v>
-      </c>
-      <c r="D75" t="n">
-        <v>26142678.51782365</v>
-      </c>
-      <c r="E75" t="n">
-        <v>25612832.53002596</v>
-      </c>
-      <c r="F75" t="n">
-        <v>25093725.18060436</v>
-      </c>
-      <c r="G75" t="n">
-        <v>24585138.82451325</v>
-      </c>
-      <c r="H75" t="n">
-        <v>24086860.22782178</v>
-      </c>
-      <c r="I75" t="n">
-        <v>23598680.47831165</v>
-      </c>
-      <c r="J75" t="n">
-        <v>23120394.89788697</v>
-      </c>
-      <c r="K75" t="n">
-        <v>22651802.9567593</v>
-      </c>
-      <c r="L75" t="n">
-        <v>22192708.18937194</v>
-      </c>
-      <c r="M75" t="n">
-        <v>21742918.11202823</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Шугай (Русал)</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>13692494.82771115</v>
-      </c>
-      <c r="C76" t="n">
-        <v>10560103.74570801</v>
-      </c>
-      <c r="D76" t="n">
-        <v>8144300.401299284</v>
-      </c>
-      <c r="E76" t="n">
-        <v>6281153.161356235</v>
-      </c>
-      <c r="F76" t="n">
-        <v>4844232.542075854</v>
-      </c>
-      <c r="G76" t="n">
-        <v>3736031.954463557</v>
-      </c>
-      <c r="H76" t="n">
-        <v>2881351.100207821</v>
-      </c>
-      <c r="I76" t="n">
-        <v>2222193.028287655</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1713828.57667505</v>
-      </c>
-      <c r="K76" t="n">
-        <v>1321761.139936317</v>
-      </c>
-      <c r="L76" t="n">
-        <v>1019385.797869679</v>
-      </c>
-      <c r="M76" t="n">
-        <v>786183.9582819545</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ясиновер (УГМК)</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>15494642.91990469</v>
-      </c>
-      <c r="C77" t="n">
-        <v>15412440.14121809</v>
-      </c>
-      <c r="D77" t="n">
-        <v>15330673.46789116</v>
-      </c>
-      <c r="E77" t="n">
-        <v>15249340.5862809</v>
-      </c>
-      <c r="F77" t="n">
-        <v>15168439.19501874</v>
-      </c>
-      <c r="G77" t="n">
-        <v>15087967.00494538</v>
-      </c>
-      <c r="H77" t="n">
-        <v>15007921.7390461</v>
-      </c>
-      <c r="I77" t="n">
-        <v>14928301.13238624</v>
-      </c>
-      <c r="J77" t="n">
-        <v>14849102.93204717</v>
-      </c>
-      <c r="K77" t="n">
-        <v>14770324.8970626</v>
-      </c>
-      <c r="L77" t="n">
-        <v>14691964.79835501</v>
-      </c>
-      <c r="M77" t="n">
-        <v>14614020.41867271</v>
+        <v>1241896.408485442</v>
       </c>
     </row>
   </sheetData>
